--- a/tap/gyakorlatok/7. Optimalizálási feladatok, szállítás_diák.xlsx
+++ b/tap/gyakorlatok/7. Optimalizálási feladatok, szállítás_diák.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Otthon\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93DB57E-5DCE-4DD5-AAA1-FF0B1FC70890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Szállítási feladatok" sheetId="1" r:id="rId1"/>
@@ -28,135 +29,213 @@
     <definedName name="solver_adj" localSheetId="3" hidden="1">'1. feladat megoldás'!$A$2:$I$2</definedName>
     <definedName name="solver_adj" localSheetId="5" hidden="1">'2. feladat, megoldás'!$C$11:$F$13</definedName>
     <definedName name="solver_adj" localSheetId="7" hidden="1">'3. Hozzárendelési feladat'!$C$60:$R$60</definedName>
+    <definedName name="solver_adj" localSheetId="8" hidden="1">'4. feladat'!$B$26:$F$29</definedName>
+    <definedName name="solver_adj" localSheetId="9" hidden="1">'5. feladat'!$C$20:$D$23</definedName>
     <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="5" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="7" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="8" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="9" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_drv" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_drv" localSheetId="9" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="9" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="9" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="7" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="8" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="9" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="3" hidden="1">'1. feladat megoldás'!$I$12</definedName>
     <definedName name="solver_lhs1" localSheetId="5" hidden="1">'2. feladat, megoldás'!$C$14</definedName>
     <definedName name="solver_lhs1" localSheetId="7" hidden="1">'3. Hozzárendelési feladat'!$R$74:$R$81</definedName>
+    <definedName name="solver_lhs1" localSheetId="8" hidden="1">'4. feladat'!$B$30:$F$30</definedName>
+    <definedName name="solver_lhs1" localSheetId="9" hidden="1">'5. feladat'!$C$20:$D$23</definedName>
     <definedName name="solver_lhs2" localSheetId="3" hidden="1">'1. feladat megoldás'!$I$13</definedName>
     <definedName name="solver_lhs2" localSheetId="5" hidden="1">'2. feladat, megoldás'!$D$14</definedName>
     <definedName name="solver_lhs2" localSheetId="7" hidden="1">'3. Hozzárendelési feladat'!$R$75</definedName>
+    <definedName name="solver_lhs2" localSheetId="8" hidden="1">'4. feladat'!$E$30</definedName>
+    <definedName name="solver_lhs2" localSheetId="9" hidden="1">'5. feladat'!$E$20:$E$23</definedName>
     <definedName name="solver_lhs3" localSheetId="3" hidden="1">'1. feladat megoldás'!$I$14</definedName>
     <definedName name="solver_lhs3" localSheetId="5" hidden="1">'2. feladat, megoldás'!$E$14</definedName>
+    <definedName name="solver_lhs3" localSheetId="8" hidden="1">'4. feladat'!$E$30</definedName>
     <definedName name="solver_lhs4" localSheetId="3" hidden="1">'1. feladat megoldás'!$I$15</definedName>
     <definedName name="solver_lhs4" localSheetId="5" hidden="1">'2. feladat, megoldás'!$F$14</definedName>
+    <definedName name="solver_lhs4" localSheetId="8" hidden="1">'4. feladat'!$E$30</definedName>
     <definedName name="solver_lhs5" localSheetId="3" hidden="1">'1. feladat megoldás'!$I$16</definedName>
     <definedName name="solver_lhs5" localSheetId="5" hidden="1">'2. feladat, megoldás'!$G$11</definedName>
+    <definedName name="solver_lhs5" localSheetId="8" hidden="1">'4. feladat'!$E$30</definedName>
     <definedName name="solver_lhs6" localSheetId="5" hidden="1">'2. feladat, megoldás'!$G$12</definedName>
+    <definedName name="solver_lhs6" localSheetId="8" hidden="1">'4. feladat'!$F$30</definedName>
     <definedName name="solver_lhs7" localSheetId="5" hidden="1">'2. feladat, megoldás'!$G$13</definedName>
     <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="7" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="8" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="9" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="5" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="7" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="8" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="9" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="5" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="7" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="8" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="9" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="9" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="9" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="7" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="8" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="9" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_num" localSheetId="3" hidden="1">5</definedName>
     <definedName name="solver_num" localSheetId="5" hidden="1">7</definedName>
     <definedName name="solver_num" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="9" hidden="1">2</definedName>
     <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="9" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">'1. feladat'!$C$17</definedName>
     <definedName name="solver_opt" localSheetId="3" hidden="1">'1. feladat megoldás'!$K$18</definedName>
     <definedName name="solver_opt" localSheetId="5" hidden="1">'2. feladat, megoldás'!$B$17</definedName>
     <definedName name="solver_opt" localSheetId="7" hidden="1">'3. Hozzárendelési feladat'!$T$83</definedName>
+    <definedName name="solver_opt" localSheetId="8" hidden="1">'4. feladat'!$A$32</definedName>
+    <definedName name="solver_opt" localSheetId="9" hidden="1">'5. feladat'!$B$26</definedName>
     <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="5" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="7" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="8" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="9" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_rbv" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_rbv" localSheetId="9" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="9" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="9" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_rel4" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_rel4" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_rel4" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_rel5" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_rel5" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel5" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_rel6" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel6" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_rel7" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="3" hidden="1">40</definedName>
     <definedName name="solver_rhs1" localSheetId="5" hidden="1">'2. feladat, megoldás'!$C$7</definedName>
     <definedName name="solver_rhs1" localSheetId="7" hidden="1">'3. Hozzárendelési feladat'!$T$74:$T$81</definedName>
+    <definedName name="solver_rhs1" localSheetId="8" hidden="1">'4. feladat'!$B$19:$F$19</definedName>
+    <definedName name="solver_rhs1" localSheetId="9" hidden="1">'5. feladat'!$C$13:$D$16</definedName>
     <definedName name="solver_rhs2" localSheetId="3" hidden="1">30</definedName>
     <definedName name="solver_rhs2" localSheetId="5" hidden="1">'2. feladat, megoldás'!$D$7</definedName>
     <definedName name="solver_rhs2" localSheetId="7" hidden="1">'3. Hozzárendelési feladat'!$T$75</definedName>
+    <definedName name="solver_rhs2" localSheetId="8" hidden="1">'4. feladat'!$E$19</definedName>
+    <definedName name="solver_rhs2" localSheetId="9" hidden="1">'5. feladat'!$E$13:$E$16</definedName>
     <definedName name="solver_rhs3" localSheetId="3" hidden="1">30</definedName>
     <definedName name="solver_rhs3" localSheetId="5" hidden="1">'2. feladat, megoldás'!$E$7</definedName>
+    <definedName name="solver_rhs3" localSheetId="8" hidden="1">'4. feladat'!$E$19</definedName>
     <definedName name="solver_rhs4" localSheetId="3" hidden="1">30</definedName>
     <definedName name="solver_rhs4" localSheetId="5" hidden="1">'2. feladat, megoldás'!$F$7</definedName>
+    <definedName name="solver_rhs4" localSheetId="8" hidden="1">'4. feladat'!$E$19</definedName>
     <definedName name="solver_rhs5" localSheetId="3" hidden="1">30</definedName>
     <definedName name="solver_rhs5" localSheetId="5" hidden="1">'2. feladat, megoldás'!$G$4</definedName>
+    <definedName name="solver_rhs5" localSheetId="8" hidden="1">'4. feladat'!$E$19</definedName>
     <definedName name="solver_rhs6" localSheetId="5" hidden="1">'2. feladat, megoldás'!$G$5</definedName>
+    <definedName name="solver_rhs6" localSheetId="8" hidden="1">'4. feladat'!$F$19</definedName>
     <definedName name="solver_rhs7" localSheetId="5" hidden="1">'2. feladat, megoldás'!$G$6</definedName>
     <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="9" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="7" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="8" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="9" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="9" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="9" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="5" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="7" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="8" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="9" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="7" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="8" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="9" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="5" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="7" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="8" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="9" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="9" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="7" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="8" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="9" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="5" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="7" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="8" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="9" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -168,8 +247,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -177,7 +254,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="261">
   <si>
     <t>Szállítási feladatok</t>
   </si>
@@ -1219,16 +1296,22 @@
   <si>
     <t>$R$81=$T$81</t>
   </si>
+  <si>
+    <t>igeny</t>
+  </si>
+  <si>
+    <t>keszlet</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;Ft&quot;_-;\-* #,##0.00\ &quot;Ft&quot;_-;_-* &quot;-&quot;??\ &quot;Ft&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-;_-@_-"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1360,8 +1443,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1414,8 +1505,13 @@
         <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="49">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -2033,14 +2129,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2197,6 +2303,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="44" xfId="2"/>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="45" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -2251,32 +2379,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="44" xfId="2"/>
-    <xf numFmtId="165" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="45" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="33" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="16" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="35" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="36" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="37" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Bevitel" xfId="2" builtinId="20"/>
     <cellStyle name="Ellenőrzőcella" xfId="3" builtinId="23"/>
+    <cellStyle name="Jó" xfId="4" builtinId="26"/>
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
     <cellStyle name="Pénznem" xfId="1" builtinId="4"/>
   </cellStyles>
@@ -2308,7 +2445,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9589,8 +9725,8 @@
       <xdr:rowOff>160813</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="11182350" cy="219163"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -10483,7 +10619,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -11786,7 +11922,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
@@ -11865,11 +12001,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="L1:O6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="B1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11878,8 +12014,8 @@
     <col min="15" max="15" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L2" s="55" t="s">
         <v>107</v>
       </c>
@@ -11893,7 +12029,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="L3" s="58" t="s">
         <v>111</v>
       </c>
@@ -11907,7 +12043,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="L4" s="58" t="s">
         <v>112</v>
       </c>
@@ -11921,7 +12057,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="L5" s="58" t="s">
         <v>113</v>
       </c>
@@ -11935,7 +12071,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L6" s="61" t="s">
         <v>114</v>
       </c>
@@ -11947,6 +12083,154 @@
       </c>
       <c r="O6" s="63">
         <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="57" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="59">
+        <v>500</v>
+      </c>
+      <c r="D13" s="59">
+        <v>775</v>
+      </c>
+      <c r="E13" s="60">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="59">
+        <v>170</v>
+      </c>
+      <c r="D14" s="59">
+        <v>80</v>
+      </c>
+      <c r="E14" s="60">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="59">
+        <v>300</v>
+      </c>
+      <c r="D15" s="59">
+        <v>800</v>
+      </c>
+      <c r="E15" s="60">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="62">
+        <v>900</v>
+      </c>
+      <c r="D16" s="62">
+        <v>50</v>
+      </c>
+      <c r="E16" s="63">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" s="57" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="59">
+        <v>1</v>
+      </c>
+      <c r="D20" s="59">
+        <v>1</v>
+      </c>
+      <c r="E20" s="60">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="59">
+        <v>1</v>
+      </c>
+      <c r="D21" s="59">
+        <v>1</v>
+      </c>
+      <c r="E21" s="60">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="59">
+        <v>1</v>
+      </c>
+      <c r="D22" s="59">
+        <v>1</v>
+      </c>
+      <c r="E22" s="60">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="62">
+        <v>1</v>
+      </c>
+      <c r="D23" s="62">
+        <v>1</v>
+      </c>
+      <c r="E23" s="63">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <f>SUMPRODUCT(C13:D16,C20:D23)</f>
+        <v>3575</v>
       </c>
     </row>
   </sheetData>
@@ -11957,10 +12241,10 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="K3:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -12009,10 +12293,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A14:E42"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A37" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -12025,11 +12309,11 @@
   <sheetData>
     <row r="14" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="3:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C16" s="4" t="s">
@@ -12043,7 +12327,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="66" t="s">
+      <c r="A17" s="80" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -12060,7 +12344,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="66"/>
+      <c r="A18" s="80"/>
       <c r="B18" s="3" t="s">
         <v>17</v>
       </c>
@@ -12141,7 +12425,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0"/>
@@ -12158,50 +12442,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="67" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="67" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="67" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="67" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="67" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="85"/>
+      <c r="A6" s="67"/>
       <c r="B6" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="85"/>
+      <c r="A7" s="67"/>
       <c r="B7" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="85"/>
+      <c r="A8" s="67"/>
       <c r="B8" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="85" t="s">
+      <c r="A9" s="67" t="s">
         <v>130</v>
       </c>
     </row>
@@ -12221,31 +12505,31 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="87" t="s">
+      <c r="B15" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="C15" s="87" t="s">
+      <c r="C15" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="D15" s="87" t="s">
+      <c r="D15" s="69" t="s">
         <v>136</v>
       </c>
-      <c r="E15" s="87" t="s">
+      <c r="E15" s="69" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="86" t="s">
+      <c r="B16" s="68" t="s">
         <v>145</v>
       </c>
-      <c r="C16" s="86" t="e">
+      <c r="C16" s="68" t="e">
         <f xml:space="preserve"> min</f>
         <v>#NAME?</v>
       </c>
-      <c r="D16" s="89">
+      <c r="D16" s="71">
         <v>455</v>
       </c>
-      <c r="E16" s="89">
+      <c r="E16" s="71">
         <v>3200</v>
       </c>
     </row>
@@ -12255,172 +12539,172 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="87" t="s">
+      <c r="B20" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="C20" s="87" t="s">
+      <c r="C20" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="D20" s="87" t="s">
+      <c r="D20" s="69" t="s">
         <v>136</v>
       </c>
-      <c r="E20" s="87" t="s">
+      <c r="E20" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="F20" s="87" t="s">
+      <c r="F20" s="69" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="88" t="s">
+      <c r="B21" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="C21" s="88" t="s">
+      <c r="C21" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="90">
+      <c r="D21" s="72">
         <v>1</v>
       </c>
-      <c r="E21" s="90">
+      <c r="E21" s="72">
         <v>10</v>
       </c>
-      <c r="F21" s="88" t="s">
+      <c r="F21" s="70" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="88" t="s">
+      <c r="B22" s="70" t="s">
         <v>148</v>
       </c>
-      <c r="C22" s="88" t="s">
+      <c r="C22" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="90">
+      <c r="D22" s="72">
         <v>1</v>
       </c>
-      <c r="E22" s="90">
+      <c r="E22" s="72">
         <v>30</v>
       </c>
-      <c r="F22" s="88" t="s">
+      <c r="F22" s="70" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="88" t="s">
+      <c r="B23" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="C23" s="88" t="s">
+      <c r="C23" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="90">
+      <c r="D23" s="72">
         <v>1</v>
       </c>
-      <c r="E23" s="90">
-        <v>0</v>
-      </c>
-      <c r="F23" s="88" t="s">
+      <c r="E23" s="72">
+        <v>0</v>
+      </c>
+      <c r="F23" s="70" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="88" t="s">
+      <c r="B24" s="70" t="s">
         <v>150</v>
       </c>
-      <c r="C24" s="88" t="s">
+      <c r="C24" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="90">
+      <c r="D24" s="72">
         <v>1</v>
       </c>
-      <c r="E24" s="90">
-        <v>0</v>
-      </c>
-      <c r="F24" s="88" t="s">
+      <c r="E24" s="72">
+        <v>0</v>
+      </c>
+      <c r="F24" s="70" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="88" t="s">
+      <c r="B25" s="70" t="s">
         <v>151</v>
       </c>
-      <c r="C25" s="88" t="s">
+      <c r="C25" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="90">
+      <c r="D25" s="72">
         <v>1</v>
       </c>
-      <c r="E25" s="90">
-        <v>0</v>
-      </c>
-      <c r="F25" s="88" t="s">
+      <c r="E25" s="72">
+        <v>0</v>
+      </c>
+      <c r="F25" s="70" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="88" t="s">
+      <c r="B26" s="70" t="s">
         <v>152</v>
       </c>
-      <c r="C26" s="88" t="s">
+      <c r="C26" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="90">
+      <c r="D26" s="72">
         <v>1</v>
       </c>
-      <c r="E26" s="90">
+      <c r="E26" s="72">
         <v>30</v>
       </c>
-      <c r="F26" s="88" t="s">
+      <c r="F26" s="70" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="88" t="s">
+      <c r="B27" s="70" t="s">
         <v>153</v>
       </c>
-      <c r="C27" s="88" t="s">
+      <c r="C27" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="D27" s="90">
+      <c r="D27" s="72">
         <v>1</v>
       </c>
-      <c r="E27" s="90">
+      <c r="E27" s="72">
         <v>20</v>
       </c>
-      <c r="F27" s="88" t="s">
+      <c r="F27" s="70" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="88" t="s">
+      <c r="B28" s="70" t="s">
         <v>154</v>
       </c>
-      <c r="C28" s="88" t="s">
+      <c r="C28" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="90">
+      <c r="D28" s="72">
         <v>1</v>
       </c>
-      <c r="E28" s="90">
-        <v>0</v>
-      </c>
-      <c r="F28" s="88" t="s">
+      <c r="E28" s="72">
+        <v>0</v>
+      </c>
+      <c r="F28" s="70" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="86" t="s">
+      <c r="B29" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="C29" s="86" t="s">
+      <c r="C29" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="D29" s="89">
+      <c r="D29" s="71">
         <v>1</v>
       </c>
-      <c r="E29" s="89">
-        <v>0</v>
-      </c>
-      <c r="F29" s="86" t="s">
+      <c r="E29" s="71">
+        <v>0</v>
+      </c>
+      <c r="F29" s="68" t="s">
         <v>147</v>
       </c>
     </row>
@@ -12430,122 +12714,122 @@
       </c>
     </row>
     <row r="33" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="87" t="s">
+      <c r="B33" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="C33" s="87" t="s">
+      <c r="C33" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="D33" s="87" t="s">
+      <c r="D33" s="69" t="s">
         <v>141</v>
       </c>
-      <c r="E33" s="87" t="s">
+      <c r="E33" s="69" t="s">
         <v>142</v>
       </c>
-      <c r="F33" s="87" t="s">
+      <c r="F33" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="G33" s="87" t="s">
+      <c r="G33" s="69" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="88" t="s">
+      <c r="B34" s="70" t="s">
         <v>156</v>
       </c>
-      <c r="C34" s="88" t="s">
+      <c r="C34" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="D34" s="90">
+      <c r="D34" s="72">
         <v>40</v>
       </c>
-      <c r="E34" s="88" t="s">
+      <c r="E34" s="70" t="s">
         <v>157</v>
       </c>
-      <c r="F34" s="88" t="s">
+      <c r="F34" s="70" t="s">
         <v>158</v>
       </c>
-      <c r="G34" s="88">
+      <c r="G34" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="88" t="s">
+      <c r="B35" s="70" t="s">
         <v>159</v>
       </c>
-      <c r="C35" s="88" t="s">
+      <c r="C35" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="D35" s="90">
+      <c r="D35" s="72">
         <v>30</v>
       </c>
-      <c r="E35" s="88" t="s">
+      <c r="E35" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="F35" s="88" t="s">
+      <c r="F35" s="70" t="s">
         <v>158</v>
       </c>
-      <c r="G35" s="88">
+      <c r="G35" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="88" t="s">
+      <c r="B36" s="70" t="s">
         <v>161</v>
       </c>
-      <c r="C36" s="88" t="s">
+      <c r="C36" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="D36" s="90">
+      <c r="D36" s="72">
         <v>30</v>
       </c>
-      <c r="E36" s="88" t="s">
+      <c r="E36" s="70" t="s">
         <v>162</v>
       </c>
-      <c r="F36" s="88" t="s">
+      <c r="F36" s="70" t="s">
         <v>158</v>
       </c>
-      <c r="G36" s="90">
+      <c r="G36" s="72">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="88" t="s">
+      <c r="B37" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="C37" s="88" t="s">
+      <c r="C37" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="D37" s="90">
+      <c r="D37" s="72">
         <v>30</v>
       </c>
-      <c r="E37" s="88" t="s">
+      <c r="E37" s="70" t="s">
         <v>164</v>
       </c>
-      <c r="F37" s="88" t="s">
+      <c r="F37" s="70" t="s">
         <v>158</v>
       </c>
-      <c r="G37" s="90">
+      <c r="G37" s="72">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="86" t="s">
+      <c r="B38" s="68" t="s">
         <v>165</v>
       </c>
-      <c r="C38" s="86" t="s">
+      <c r="C38" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="89">
+      <c r="D38" s="71">
         <v>30</v>
       </c>
-      <c r="E38" s="86" t="s">
+      <c r="E38" s="68" t="s">
         <v>166</v>
       </c>
-      <c r="F38" s="86" t="s">
+      <c r="F38" s="68" t="s">
         <v>158</v>
       </c>
-      <c r="G38" s="89">
+      <c r="G38" s="71">
         <v>0</v>
       </c>
     </row>
@@ -12556,11 +12840,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12605,31 +12889,31 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="84">
+      <c r="A2" s="66">
         <v>10</v>
       </c>
-      <c r="B2" s="84">
+      <c r="B2" s="66">
         <v>30</v>
       </c>
-      <c r="C2" s="84">
-        <v>0</v>
-      </c>
-      <c r="D2" s="84">
-        <v>0</v>
-      </c>
-      <c r="E2" s="84">
-        <v>0</v>
-      </c>
-      <c r="F2" s="84">
+      <c r="C2" s="66">
+        <v>0</v>
+      </c>
+      <c r="D2" s="66">
+        <v>0</v>
+      </c>
+      <c r="E2" s="66">
+        <v>0</v>
+      </c>
+      <c r="F2" s="66">
         <v>30</v>
       </c>
-      <c r="G2" s="84">
+      <c r="G2" s="66">
         <v>20</v>
       </c>
-      <c r="H2" s="84">
-        <v>0</v>
-      </c>
-      <c r="I2" s="84">
+      <c r="H2" s="66">
+        <v>0</v>
+      </c>
+      <c r="I2" s="66">
         <v>0</v>
       </c>
       <c r="K2" s="12" t="s">
@@ -12944,7 +13228,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
@@ -12962,50 +13246,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="67" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="67" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="67" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="67" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="67" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="85"/>
+      <c r="A6" s="67"/>
       <c r="B6" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="85"/>
+      <c r="A7" s="67"/>
       <c r="B7" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="85"/>
+      <c r="A8" s="67"/>
       <c r="B8" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="85" t="s">
+      <c r="A9" s="67" t="s">
         <v>130</v>
       </c>
     </row>
@@ -13025,30 +13309,30 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="87" t="s">
+      <c r="B15" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="C15" s="87" t="s">
+      <c r="C15" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="D15" s="87" t="s">
+      <c r="D15" s="69" t="s">
         <v>136</v>
       </c>
-      <c r="E15" s="87" t="s">
+      <c r="E15" s="69" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="86" t="s">
+      <c r="B16" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="86" t="s">
+      <c r="C16" s="68" t="s">
         <v>175</v>
       </c>
-      <c r="D16" s="89">
+      <c r="D16" s="71">
         <v>19000</v>
       </c>
-      <c r="E16" s="89">
+      <c r="E16" s="71">
         <v>22400</v>
       </c>
     </row>
@@ -13058,223 +13342,223 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="87" t="s">
+      <c r="B20" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="C20" s="87" t="s">
+      <c r="C20" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="D20" s="87" t="s">
+      <c r="D20" s="69" t="s">
         <v>136</v>
       </c>
-      <c r="E20" s="87" t="s">
+      <c r="E20" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="F20" s="87" t="s">
+      <c r="F20" s="69" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="88" t="s">
+      <c r="B21" s="70" t="s">
         <v>176</v>
       </c>
-      <c r="C21" s="88" t="s">
+      <c r="C21" s="70" t="s">
         <v>177</v>
       </c>
-      <c r="D21" s="90">
+      <c r="D21" s="72">
         <v>1</v>
       </c>
-      <c r="E21" s="90">
-        <v>0</v>
-      </c>
-      <c r="F21" s="88" t="s">
+      <c r="E21" s="72">
+        <v>0</v>
+      </c>
+      <c r="F21" s="70" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="88" t="s">
+      <c r="B22" s="70" t="s">
         <v>178</v>
       </c>
-      <c r="C22" s="88" t="s">
+      <c r="C22" s="70" t="s">
         <v>179</v>
       </c>
-      <c r="D22" s="90">
+      <c r="D22" s="72">
         <v>1</v>
       </c>
-      <c r="E22" s="90">
-        <v>0</v>
-      </c>
-      <c r="F22" s="88" t="s">
+      <c r="E22" s="72">
+        <v>0</v>
+      </c>
+      <c r="F22" s="70" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="88" t="s">
+      <c r="B23" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="C23" s="88" t="s">
+      <c r="C23" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="D23" s="90">
+      <c r="D23" s="72">
         <v>1</v>
       </c>
-      <c r="E23" s="90">
+      <c r="E23" s="72">
         <v>2</v>
       </c>
-      <c r="F23" s="88" t="s">
+      <c r="F23" s="70" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="88" t="s">
+      <c r="B24" s="70" t="s">
         <v>182</v>
       </c>
-      <c r="C24" s="88" t="s">
+      <c r="C24" s="70" t="s">
         <v>183</v>
       </c>
-      <c r="D24" s="90">
+      <c r="D24" s="72">
         <v>1</v>
       </c>
-      <c r="E24" s="90">
+      <c r="E24" s="72">
         <v>4</v>
       </c>
-      <c r="F24" s="88" t="s">
+      <c r="F24" s="70" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="88" t="s">
+      <c r="B25" s="70" t="s">
         <v>184</v>
       </c>
-      <c r="C25" s="88" t="s">
+      <c r="C25" s="70" t="s">
         <v>185</v>
       </c>
-      <c r="D25" s="90">
+      <c r="D25" s="72">
         <v>1</v>
       </c>
-      <c r="E25" s="90">
+      <c r="E25" s="72">
         <v>5</v>
       </c>
-      <c r="F25" s="88" t="s">
+      <c r="F25" s="70" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="88" t="s">
+      <c r="B26" s="70" t="s">
         <v>186</v>
       </c>
-      <c r="C26" s="88" t="s">
+      <c r="C26" s="70" t="s">
         <v>187</v>
       </c>
-      <c r="D26" s="90">
+      <c r="D26" s="72">
         <v>1</v>
       </c>
-      <c r="E26" s="90">
+      <c r="E26" s="72">
         <v>2</v>
       </c>
-      <c r="F26" s="88" t="s">
+      <c r="F26" s="70" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="88" t="s">
+      <c r="B27" s="70" t="s">
         <v>188</v>
       </c>
-      <c r="C27" s="88" t="s">
+      <c r="C27" s="70" t="s">
         <v>189</v>
       </c>
-      <c r="D27" s="90">
+      <c r="D27" s="72">
         <v>1</v>
       </c>
-      <c r="E27" s="90">
-        <v>0</v>
-      </c>
-      <c r="F27" s="88" t="s">
+      <c r="E27" s="72">
+        <v>0</v>
+      </c>
+      <c r="F27" s="70" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="88" t="s">
+      <c r="B28" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="C28" s="88" t="s">
+      <c r="C28" s="70" t="s">
         <v>191</v>
       </c>
-      <c r="D28" s="90">
+      <c r="D28" s="72">
         <v>1</v>
       </c>
-      <c r="E28" s="90">
-        <v>0</v>
-      </c>
-      <c r="F28" s="88" t="s">
+      <c r="E28" s="72">
+        <v>0</v>
+      </c>
+      <c r="F28" s="70" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="88" t="s">
+      <c r="B29" s="70" t="s">
         <v>192</v>
       </c>
-      <c r="C29" s="88" t="s">
+      <c r="C29" s="70" t="s">
         <v>193</v>
       </c>
-      <c r="D29" s="90">
+      <c r="D29" s="72">
         <v>1</v>
       </c>
-      <c r="E29" s="90">
-        <v>0</v>
-      </c>
-      <c r="F29" s="88" t="s">
+      <c r="E29" s="72">
+        <v>0</v>
+      </c>
+      <c r="F29" s="70" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="88" t="s">
+      <c r="B30" s="70" t="s">
         <v>194</v>
       </c>
-      <c r="C30" s="88" t="s">
+      <c r="C30" s="70" t="s">
         <v>195</v>
       </c>
-      <c r="D30" s="90">
+      <c r="D30" s="72">
         <v>1</v>
       </c>
-      <c r="E30" s="90">
+      <c r="E30" s="72">
         <v>2</v>
       </c>
-      <c r="F30" s="88" t="s">
+      <c r="F30" s="70" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="88" t="s">
+      <c r="B31" s="70" t="s">
         <v>196</v>
       </c>
-      <c r="C31" s="88" t="s">
+      <c r="C31" s="70" t="s">
         <v>197</v>
       </c>
-      <c r="D31" s="90">
+      <c r="D31" s="72">
         <v>1</v>
       </c>
-      <c r="E31" s="90">
+      <c r="E31" s="72">
         <v>3</v>
       </c>
-      <c r="F31" s="88" t="s">
+      <c r="F31" s="70" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="86" t="s">
+      <c r="B32" s="68" t="s">
         <v>198</v>
       </c>
-      <c r="C32" s="86" t="s">
+      <c r="C32" s="68" t="s">
         <v>199</v>
       </c>
-      <c r="D32" s="89">
+      <c r="D32" s="71">
         <v>1</v>
       </c>
-      <c r="E32" s="89">
-        <v>0</v>
-      </c>
-      <c r="F32" s="86" t="s">
+      <c r="E32" s="71">
+        <v>0</v>
+      </c>
+      <c r="F32" s="68" t="s">
         <v>147</v>
       </c>
     </row>
@@ -13284,162 +13568,162 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="87" t="s">
+      <c r="B36" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="C36" s="87" t="s">
+      <c r="C36" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="D36" s="87" t="s">
+      <c r="D36" s="69" t="s">
         <v>141</v>
       </c>
-      <c r="E36" s="87" t="s">
+      <c r="E36" s="69" t="s">
         <v>142</v>
       </c>
-      <c r="F36" s="87" t="s">
+      <c r="F36" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="G36" s="87" t="s">
+      <c r="G36" s="69" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="88" t="s">
+      <c r="B37" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="C37" s="88" t="s">
+      <c r="C37" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="D37" s="90">
+      <c r="D37" s="72">
         <v>5</v>
       </c>
-      <c r="E37" s="88" t="s">
+      <c r="E37" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="F37" s="88" t="s">
+      <c r="F37" s="70" t="s">
         <v>158</v>
       </c>
-      <c r="G37" s="88">
+      <c r="G37" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="88" t="s">
+      <c r="B38" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="C38" s="88" t="s">
+      <c r="C38" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="D38" s="90">
+      <c r="D38" s="72">
         <v>4</v>
       </c>
-      <c r="E38" s="88" t="s">
+      <c r="E38" s="70" t="s">
         <v>205</v>
       </c>
-      <c r="F38" s="88" t="s">
+      <c r="F38" s="70" t="s">
         <v>158</v>
       </c>
-      <c r="G38" s="88">
+      <c r="G38" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="88" t="s">
+      <c r="B39" s="70" t="s">
         <v>206</v>
       </c>
-      <c r="C39" s="88" t="s">
+      <c r="C39" s="70" t="s">
         <v>207</v>
       </c>
-      <c r="D39" s="90">
+      <c r="D39" s="72">
         <v>5</v>
       </c>
-      <c r="E39" s="88" t="s">
+      <c r="E39" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="F39" s="88" t="s">
+      <c r="F39" s="70" t="s">
         <v>158</v>
       </c>
-      <c r="G39" s="88">
+      <c r="G39" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="88" t="s">
+      <c r="B40" s="70" t="s">
         <v>209</v>
       </c>
-      <c r="C40" s="88" t="s">
+      <c r="C40" s="70" t="s">
         <v>210</v>
       </c>
-      <c r="D40" s="90">
+      <c r="D40" s="72">
         <v>4</v>
       </c>
-      <c r="E40" s="88" t="s">
+      <c r="E40" s="70" t="s">
         <v>211</v>
       </c>
-      <c r="F40" s="88" t="s">
+      <c r="F40" s="70" t="s">
         <v>158</v>
       </c>
-      <c r="G40" s="88">
+      <c r="G40" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="88" t="s">
+      <c r="B41" s="70" t="s">
         <v>212</v>
       </c>
-      <c r="C41" s="88" t="s">
+      <c r="C41" s="70" t="s">
         <v>213</v>
       </c>
-      <c r="D41" s="90">
+      <c r="D41" s="72">
         <v>6</v>
       </c>
-      <c r="E41" s="88" t="s">
+      <c r="E41" s="70" t="s">
         <v>214</v>
       </c>
-      <c r="F41" s="88" t="s">
+      <c r="F41" s="70" t="s">
         <v>158</v>
       </c>
-      <c r="G41" s="88">
+      <c r="G41" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="88" t="s">
+      <c r="B42" s="70" t="s">
         <v>215</v>
       </c>
-      <c r="C42" s="88" t="s">
+      <c r="C42" s="70" t="s">
         <v>216</v>
       </c>
-      <c r="D42" s="90">
+      <c r="D42" s="72">
         <v>7</v>
       </c>
-      <c r="E42" s="88" t="s">
+      <c r="E42" s="70" t="s">
         <v>217</v>
       </c>
-      <c r="F42" s="88" t="s">
+      <c r="F42" s="70" t="s">
         <v>158</v>
       </c>
-      <c r="G42" s="88">
+      <c r="G42" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="86" t="s">
+      <c r="B43" s="68" t="s">
         <v>218</v>
       </c>
-      <c r="C43" s="86" t="s">
+      <c r="C43" s="68" t="s">
         <v>219</v>
       </c>
-      <c r="D43" s="89">
+      <c r="D43" s="71">
         <v>5</v>
       </c>
-      <c r="E43" s="86" t="s">
+      <c r="E43" s="68" t="s">
         <v>220</v>
       </c>
-      <c r="F43" s="86" t="s">
+      <c r="F43" s="68" t="s">
         <v>158</v>
       </c>
-      <c r="G43" s="86">
+      <c r="G43" s="68">
         <v>0</v>
       </c>
     </row>
@@ -13449,11 +13733,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13470,29 +13754,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
       <c r="I1" s="15" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
@@ -13512,22 +13796,22 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="84" t="s">
         <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="92">
+      <c r="C4" s="74">
         <v>700</v>
       </c>
-      <c r="D4" s="92">
+      <c r="D4" s="74">
         <v>2600</v>
       </c>
-      <c r="E4" s="92">
+      <c r="E4" s="74">
         <v>1500</v>
       </c>
-      <c r="F4" s="92">
+      <c r="F4" s="74">
         <v>1000</v>
       </c>
       <c r="G4" s="2">
@@ -13535,52 +13819,52 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="92">
+      <c r="C5" s="74">
         <v>1000</v>
       </c>
-      <c r="D5" s="92">
+      <c r="D5" s="74">
         <v>1800</v>
       </c>
-      <c r="E5" s="92">
+      <c r="E5" s="74">
         <v>2000</v>
       </c>
-      <c r="F5" s="92">
+      <c r="F5" s="74">
         <v>2400</v>
       </c>
       <c r="G5" s="2">
         <v>7</v>
       </c>
-      <c r="L5" s="88"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
     </row>
     <row r="6" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="70"/>
+      <c r="A6" s="84"/>
       <c r="B6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="92">
+      <c r="C6" s="74">
         <v>1800</v>
       </c>
-      <c r="D6" s="92">
+      <c r="D6" s="74">
         <v>1300</v>
       </c>
-      <c r="E6" s="92">
+      <c r="E6" s="74">
         <v>1400</v>
       </c>
-      <c r="F6" s="92">
+      <c r="F6" s="74">
         <v>1500</v>
       </c>
       <c r="G6" s="2">
         <v>5</v>
       </c>
-      <c r="L6" s="88"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
     </row>
     <row r="7" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
@@ -13599,18 +13883,18 @@
       <c r="F7" s="2">
         <v>4</v>
       </c>
-      <c r="L7" s="88" t="s">
+      <c r="L7" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="M7" s="90">
+      <c r="M7" s="72">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L8" s="88" t="s">
+      <c r="L8" s="70" t="s">
         <v>183</v>
       </c>
-      <c r="M8" s="90">
+      <c r="M8" s="72">
         <v>4</v>
       </c>
     </row>
@@ -13618,10 +13902,10 @@
       <c r="A9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="L9" s="88" t="s">
+      <c r="L9" s="70" t="s">
         <v>185</v>
       </c>
-      <c r="M9" s="90">
+      <c r="M9" s="72">
         <v>5</v>
       </c>
     </row>
@@ -13641,15 +13925,15 @@
       <c r="G10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L10" s="88" t="s">
+      <c r="L10" s="70" t="s">
         <v>187</v>
       </c>
-      <c r="M10" s="90">
+      <c r="M10" s="72">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="84" t="s">
         <v>60</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -13667,20 +13951,20 @@
       <c r="F11" s="14">
         <v>4</v>
       </c>
-      <c r="G11" s="91">
+      <c r="G11" s="73">
         <f>SUM(C11:F11)</f>
         <v>6</v>
       </c>
       <c r="I11" s="6"/>
-      <c r="L11" s="88" t="s">
+      <c r="L11" s="70" t="s">
         <v>195</v>
       </c>
-      <c r="M11" s="90">
+      <c r="M11" s="72">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="70"/>
+      <c r="A12" s="84"/>
       <c r="B12" s="2" t="s">
         <v>52</v>
       </c>
@@ -13696,22 +13980,22 @@
       <c r="F12" s="14">
         <v>0</v>
       </c>
-      <c r="G12" s="91">
+      <c r="G12" s="73">
         <f t="shared" ref="G12:G13" si="0">SUM(C12:F12)</f>
         <v>7</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="L12" s="88" t="s">
+      <c r="L12" s="70" t="s">
         <v>197</v>
       </c>
-      <c r="M12" s="90">
+      <c r="M12" s="72">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="70"/>
+      <c r="A13" s="84"/>
       <c r="B13" s="2" t="s">
         <v>53</v>
       </c>
@@ -13727,15 +14011,15 @@
       <c r="F13" s="14">
         <v>0</v>
       </c>
-      <c r="G13" s="91">
+      <c r="G13" s="73">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I13" s="6"/>
-      <c r="L13" s="88" t="s">
+      <c r="L13" s="70" t="s">
         <v>221</v>
       </c>
-      <c r="M13" s="90">
+      <c r="M13" s="72">
         <f>SUM(M7:M12)</f>
         <v>18</v>
       </c>
@@ -13745,19 +14029,19 @@
       <c r="B14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="91">
+      <c r="C14" s="73">
         <f>SUM(C11:C13)</f>
         <v>5</v>
       </c>
-      <c r="D14" s="91">
+      <c r="D14" s="73">
         <f t="shared" ref="D14:F14" si="1">SUM(D11:D13)</f>
         <v>4</v>
       </c>
-      <c r="E14" s="91">
+      <c r="E14" s="73">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F14" s="91">
+      <c r="F14" s="73">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -13773,15 +14057,15 @@
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L16" s="86"/>
-      <c r="M16" s="89"/>
-      <c r="N16" s="89"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="71"/>
+      <c r="N16" s="71"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="93">
+      <c r="B17" s="75">
         <f>SUMPRODUCT(C11:F13,C4:F6)</f>
         <v>22400</v>
       </c>
@@ -13802,7 +14086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
@@ -13821,50 +14105,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="67" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="67" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="67" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="67" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="67" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="85"/>
+      <c r="A6" s="67"/>
       <c r="B6" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="85"/>
+      <c r="A7" s="67"/>
       <c r="B7" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="85"/>
+      <c r="A8" s="67"/>
       <c r="B8" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="85" t="s">
+      <c r="A9" s="67" t="s">
         <v>130</v>
       </c>
     </row>
@@ -13884,31 +14168,31 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="87" t="s">
+      <c r="B15" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="C15" s="87" t="s">
+      <c r="C15" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="D15" s="87" t="s">
+      <c r="D15" s="69" t="s">
         <v>136</v>
       </c>
-      <c r="E15" s="87" t="s">
+      <c r="E15" s="69" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="86" t="s">
+      <c r="B16" s="68" t="s">
         <v>226</v>
       </c>
-      <c r="C16" s="86" t="e">
+      <c r="C16" s="68" t="e">
         <f xml:space="preserve">  min</f>
         <v>#NAME?</v>
       </c>
-      <c r="D16" s="89">
+      <c r="D16" s="71">
         <v>857</v>
       </c>
-      <c r="E16" s="89">
+      <c r="E16" s="71">
         <v>207</v>
       </c>
     </row>
@@ -13918,291 +14202,291 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="87" t="s">
+      <c r="B20" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="C20" s="87" t="s">
+      <c r="C20" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="D20" s="87" t="s">
+      <c r="D20" s="69" t="s">
         <v>136</v>
       </c>
-      <c r="E20" s="87" t="s">
+      <c r="E20" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="F20" s="87" t="s">
+      <c r="F20" s="69" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="88" t="s">
+      <c r="B21" s="70" t="s">
         <v>227</v>
       </c>
-      <c r="C21" s="88" t="s">
+      <c r="C21" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="90">
+      <c r="D21" s="72">
         <v>1</v>
       </c>
-      <c r="E21" s="90">
-        <v>0</v>
-      </c>
-      <c r="F21" s="88" t="s">
+      <c r="E21" s="72">
+        <v>0</v>
+      </c>
+      <c r="F21" s="70" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="88" t="s">
+      <c r="B22" s="70" t="s">
         <v>228</v>
       </c>
-      <c r="C22" s="88" t="s">
+      <c r="C22" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="90">
+      <c r="D22" s="72">
         <v>1</v>
       </c>
-      <c r="E22" s="90">
-        <v>0</v>
-      </c>
-      <c r="F22" s="88" t="s">
+      <c r="E22" s="72">
+        <v>0</v>
+      </c>
+      <c r="F22" s="70" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="88" t="s">
+      <c r="B23" s="70" t="s">
         <v>229</v>
       </c>
-      <c r="C23" s="88" t="s">
+      <c r="C23" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="90">
+      <c r="D23" s="72">
         <v>1</v>
       </c>
-      <c r="E23" s="90">
+      <c r="E23" s="72">
         <v>1</v>
       </c>
-      <c r="F23" s="88" t="s">
+      <c r="F23" s="70" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="88" t="s">
+      <c r="B24" s="70" t="s">
         <v>230</v>
       </c>
-      <c r="C24" s="88" t="s">
+      <c r="C24" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="D24" s="90">
+      <c r="D24" s="72">
         <v>1</v>
       </c>
-      <c r="E24" s="90">
-        <v>0</v>
-      </c>
-      <c r="F24" s="88" t="s">
+      <c r="E24" s="72">
+        <v>0</v>
+      </c>
+      <c r="F24" s="70" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="88" t="s">
+      <c r="B25" s="70" t="s">
         <v>231</v>
       </c>
-      <c r="C25" s="88" t="s">
+      <c r="C25" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="90">
+      <c r="D25" s="72">
         <v>1</v>
       </c>
-      <c r="E25" s="90">
-        <v>0</v>
-      </c>
-      <c r="F25" s="88" t="s">
+      <c r="E25" s="72">
+        <v>0</v>
+      </c>
+      <c r="F25" s="70" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="88" t="s">
+      <c r="B26" s="70" t="s">
         <v>232</v>
       </c>
-      <c r="C26" s="88" t="s">
+      <c r="C26" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="90">
+      <c r="D26" s="72">
         <v>1</v>
       </c>
-      <c r="E26" s="90">
-        <v>0</v>
-      </c>
-      <c r="F26" s="88" t="s">
+      <c r="E26" s="72">
+        <v>0</v>
+      </c>
+      <c r="F26" s="70" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="88" t="s">
+      <c r="B27" s="70" t="s">
         <v>233</v>
       </c>
-      <c r="C27" s="88" t="s">
+      <c r="C27" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="90">
+      <c r="D27" s="72">
         <v>1</v>
       </c>
-      <c r="E27" s="90">
-        <v>0</v>
-      </c>
-      <c r="F27" s="88" t="s">
+      <c r="E27" s="72">
+        <v>0</v>
+      </c>
+      <c r="F27" s="70" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="88" t="s">
+      <c r="B28" s="70" t="s">
         <v>234</v>
       </c>
-      <c r="C28" s="88" t="s">
+      <c r="C28" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="D28" s="90">
+      <c r="D28" s="72">
         <v>1</v>
       </c>
-      <c r="E28" s="90">
+      <c r="E28" s="72">
         <v>1</v>
       </c>
-      <c r="F28" s="88" t="s">
+      <c r="F28" s="70" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="88" t="s">
+      <c r="B29" s="70" t="s">
         <v>235</v>
       </c>
-      <c r="C29" s="88" t="s">
+      <c r="C29" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="D29" s="90">
+      <c r="D29" s="72">
         <v>1</v>
       </c>
-      <c r="E29" s="90">
+      <c r="E29" s="72">
         <v>1</v>
       </c>
-      <c r="F29" s="88" t="s">
+      <c r="F29" s="70" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="88" t="s">
+      <c r="B30" s="70" t="s">
         <v>236</v>
       </c>
-      <c r="C30" s="88" t="s">
+      <c r="C30" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="D30" s="90">
+      <c r="D30" s="72">
         <v>1</v>
       </c>
-      <c r="E30" s="90">
-        <v>0</v>
-      </c>
-      <c r="F30" s="88" t="s">
+      <c r="E30" s="72">
+        <v>0</v>
+      </c>
+      <c r="F30" s="70" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="88" t="s">
+      <c r="B31" s="70" t="s">
         <v>237</v>
       </c>
-      <c r="C31" s="88" t="s">
+      <c r="C31" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="D31" s="90">
+      <c r="D31" s="72">
         <v>1</v>
       </c>
-      <c r="E31" s="90">
-        <v>0</v>
-      </c>
-      <c r="F31" s="88" t="s">
+      <c r="E31" s="72">
+        <v>0</v>
+      </c>
+      <c r="F31" s="70" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="88" t="s">
+      <c r="B32" s="70" t="s">
         <v>238</v>
       </c>
-      <c r="C32" s="88" t="s">
+      <c r="C32" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="D32" s="90">
+      <c r="D32" s="72">
         <v>1</v>
       </c>
-      <c r="E32" s="90">
-        <v>0</v>
-      </c>
-      <c r="F32" s="88" t="s">
+      <c r="E32" s="72">
+        <v>0</v>
+      </c>
+      <c r="F32" s="70" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="88" t="s">
+      <c r="B33" s="70" t="s">
         <v>239</v>
       </c>
-      <c r="C33" s="88" t="s">
+      <c r="C33" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="D33" s="90">
+      <c r="D33" s="72">
         <v>1</v>
       </c>
-      <c r="E33" s="90">
-        <v>0</v>
-      </c>
-      <c r="F33" s="88" t="s">
+      <c r="E33" s="72">
+        <v>0</v>
+      </c>
+      <c r="F33" s="70" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="88" t="s">
+      <c r="B34" s="70" t="s">
         <v>240</v>
       </c>
-      <c r="C34" s="88" t="s">
+      <c r="C34" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="90">
+      <c r="D34" s="72">
         <v>1</v>
       </c>
-      <c r="E34" s="90">
+      <c r="E34" s="72">
         <v>1</v>
       </c>
-      <c r="F34" s="88" t="s">
+      <c r="F34" s="70" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="88" t="s">
+      <c r="B35" s="70" t="s">
         <v>241</v>
       </c>
-      <c r="C35" s="88" t="s">
+      <c r="C35" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="D35" s="90">
+      <c r="D35" s="72">
         <v>1</v>
       </c>
-      <c r="E35" s="90">
-        <v>0</v>
-      </c>
-      <c r="F35" s="88" t="s">
+      <c r="E35" s="72">
+        <v>0</v>
+      </c>
+      <c r="F35" s="70" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="86" t="s">
+      <c r="B36" s="68" t="s">
         <v>242</v>
       </c>
-      <c r="C36" s="86" t="s">
+      <c r="C36" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="D36" s="89">
+      <c r="D36" s="71">
         <v>1</v>
       </c>
-      <c r="E36" s="89">
-        <v>0</v>
-      </c>
-      <c r="F36" s="86" t="s">
+      <c r="E36" s="71">
+        <v>0</v>
+      </c>
+      <c r="F36" s="68" t="s">
         <v>147</v>
       </c>
     </row>
@@ -14212,182 +14496,182 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="87" t="s">
+      <c r="B40" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="C40" s="87" t="s">
+      <c r="C40" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="D40" s="87" t="s">
+      <c r="D40" s="69" t="s">
         <v>141</v>
       </c>
-      <c r="E40" s="87" t="s">
+      <c r="E40" s="69" t="s">
         <v>142</v>
       </c>
-      <c r="F40" s="87" t="s">
+      <c r="F40" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="G40" s="87" t="s">
+      <c r="G40" s="69" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="88" t="s">
+      <c r="B41" s="70" t="s">
         <v>243</v>
       </c>
-      <c r="C41" s="88" t="s">
+      <c r="C41" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="D41" s="90">
+      <c r="D41" s="72">
         <v>1</v>
       </c>
-      <c r="E41" s="88" t="s">
+      <c r="E41" s="70" t="s">
         <v>244</v>
       </c>
-      <c r="F41" s="88" t="s">
+      <c r="F41" s="70" t="s">
         <v>158</v>
       </c>
-      <c r="G41" s="88">
+      <c r="G41" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="88" t="s">
+      <c r="B42" s="70" t="s">
         <v>245</v>
       </c>
-      <c r="C42" s="88" t="s">
+      <c r="C42" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="D42" s="90">
+      <c r="D42" s="72">
         <v>1</v>
       </c>
-      <c r="E42" s="88" t="s">
+      <c r="E42" s="70" t="s">
         <v>246</v>
       </c>
-      <c r="F42" s="88" t="s">
+      <c r="F42" s="70" t="s">
         <v>158</v>
       </c>
-      <c r="G42" s="88">
+      <c r="G42" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="88" t="s">
+      <c r="B43" s="70" t="s">
         <v>247</v>
       </c>
-      <c r="C43" s="88" t="s">
+      <c r="C43" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="D43" s="90">
+      <c r="D43" s="72">
         <v>1</v>
       </c>
-      <c r="E43" s="88" t="s">
+      <c r="E43" s="70" t="s">
         <v>248</v>
       </c>
-      <c r="F43" s="88" t="s">
+      <c r="F43" s="70" t="s">
         <v>158</v>
       </c>
-      <c r="G43" s="88">
+      <c r="G43" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="88" t="s">
+      <c r="B44" s="70" t="s">
         <v>249</v>
       </c>
-      <c r="C44" s="88" t="s">
+      <c r="C44" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="D44" s="90">
+      <c r="D44" s="72">
         <v>1</v>
       </c>
-      <c r="E44" s="88" t="s">
+      <c r="E44" s="70" t="s">
         <v>250</v>
       </c>
-      <c r="F44" s="88" t="s">
+      <c r="F44" s="70" t="s">
         <v>158</v>
       </c>
-      <c r="G44" s="88">
+      <c r="G44" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="88" t="s">
+      <c r="B45" s="70" t="s">
         <v>251</v>
       </c>
-      <c r="C45" s="88" t="s">
+      <c r="C45" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="D45" s="90">
+      <c r="D45" s="72">
         <v>1</v>
       </c>
-      <c r="E45" s="88" t="s">
+      <c r="E45" s="70" t="s">
         <v>252</v>
       </c>
-      <c r="F45" s="88" t="s">
+      <c r="F45" s="70" t="s">
         <v>158</v>
       </c>
-      <c r="G45" s="88">
+      <c r="G45" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="88" t="s">
+      <c r="B46" s="70" t="s">
         <v>253</v>
       </c>
-      <c r="C46" s="88" t="s">
+      <c r="C46" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="D46" s="90">
+      <c r="D46" s="72">
         <v>1</v>
       </c>
-      <c r="E46" s="88" t="s">
+      <c r="E46" s="70" t="s">
         <v>254</v>
       </c>
-      <c r="F46" s="88" t="s">
+      <c r="F46" s="70" t="s">
         <v>158</v>
       </c>
-      <c r="G46" s="88">
+      <c r="G46" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="88" t="s">
+      <c r="B47" s="70" t="s">
         <v>255</v>
       </c>
-      <c r="C47" s="88" t="s">
+      <c r="C47" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="D47" s="90">
+      <c r="D47" s="72">
         <v>1</v>
       </c>
-      <c r="E47" s="88" t="s">
+      <c r="E47" s="70" t="s">
         <v>256</v>
       </c>
-      <c r="F47" s="88" t="s">
+      <c r="F47" s="70" t="s">
         <v>158</v>
       </c>
-      <c r="G47" s="88">
+      <c r="G47" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="86" t="s">
+      <c r="B48" s="68" t="s">
         <v>257</v>
       </c>
-      <c r="C48" s="86" t="s">
+      <c r="C48" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="D48" s="89">
+      <c r="D48" s="71">
         <v>1</v>
       </c>
-      <c r="E48" s="86" t="s">
+      <c r="E48" s="68" t="s">
         <v>258</v>
       </c>
-      <c r="F48" s="86" t="s">
+      <c r="F48" s="68" t="s">
         <v>158</v>
       </c>
-      <c r="G48" s="86">
+      <c r="G48" s="68">
         <v>0</v>
       </c>
     </row>
@@ -14397,10 +14681,10 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A16:T90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="S91" sqref="S91"/>
     </sheetView>
   </sheetViews>
@@ -14412,12 +14696,12 @@
   <sheetData>
     <row r="16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="74" t="s">
+      <c r="C17" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="76"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="90"/>
     </row>
     <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="31" t="s">
@@ -14434,7 +14718,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="71" t="s">
+      <c r="A19" s="85" t="s">
         <v>62</v>
       </c>
       <c r="B19" s="19" t="s">
@@ -14446,7 +14730,7 @@
       <c r="D19" s="23">
         <v>54</v>
       </c>
-      <c r="E19" s="94">
+      <c r="E19" s="76">
         <v>51</v>
       </c>
       <c r="F19" s="24">
@@ -14460,15 +14744,15 @@
         <f>SUM(C21,D22,E19,F20,)</f>
         <v>207</v>
       </c>
-      <c r="K19" s="88" t="s">
+      <c r="K19" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="L19" s="90">
+      <c r="L19" s="72">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="72"/>
+      <c r="A20" s="86"/>
       <c r="B20" s="20" t="s">
         <v>65</v>
       </c>
@@ -14481,26 +14765,26 @@
       <c r="E20" s="26">
         <v>52</v>
       </c>
-      <c r="F20" s="94">
+      <c r="F20" s="76">
         <v>52</v>
       </c>
       <c r="G20">
         <f t="shared" ref="G20:G22" si="0">MIN(C20:F20)</f>
         <v>51</v>
       </c>
-      <c r="K20" s="88" t="s">
+      <c r="K20" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="L20" s="90">
+      <c r="L20" s="72">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="72"/>
+      <c r="A21" s="86"/>
       <c r="B21" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="94">
+      <c r="C21" s="76">
         <v>50</v>
       </c>
       <c r="D21" s="26">
@@ -14516,22 +14800,22 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="K21" s="88" t="s">
+      <c r="K21" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="L21" s="90">
+      <c r="L21" s="72">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="73"/>
+      <c r="A22" s="87"/>
       <c r="B22" s="21" t="s">
         <v>67</v>
       </c>
       <c r="C22" s="28">
         <v>56</v>
       </c>
-      <c r="D22" s="94">
+      <c r="D22" s="76">
         <v>54</v>
       </c>
       <c r="E22" s="29">
@@ -14544,10 +14828,10 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="K22" s="88" t="s">
+      <c r="K22" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="L22" s="90">
+      <c r="L22" s="72">
         <v>1</v>
       </c>
     </row>
@@ -14655,52 +14939,52 @@
       </c>
     </row>
     <row r="60" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="95">
-        <v>0</v>
-      </c>
-      <c r="D60" s="95">
-        <v>0</v>
-      </c>
-      <c r="E60" s="95">
+      <c r="C60" s="77">
+        <v>0</v>
+      </c>
+      <c r="D60" s="77">
+        <v>0</v>
+      </c>
+      <c r="E60" s="77">
         <v>1</v>
       </c>
-      <c r="F60" s="95">
-        <v>0</v>
-      </c>
-      <c r="G60" s="95">
-        <v>0</v>
-      </c>
-      <c r="H60" s="95">
-        <v>0</v>
-      </c>
-      <c r="I60" s="95">
-        <v>0</v>
-      </c>
-      <c r="J60" s="95">
+      <c r="F60" s="77">
+        <v>0</v>
+      </c>
+      <c r="G60" s="77">
+        <v>0</v>
+      </c>
+      <c r="H60" s="77">
+        <v>0</v>
+      </c>
+      <c r="I60" s="77">
+        <v>0</v>
+      </c>
+      <c r="J60" s="77">
         <v>1</v>
       </c>
-      <c r="K60" s="95">
+      <c r="K60" s="77">
         <v>1</v>
       </c>
-      <c r="L60" s="95">
-        <v>0</v>
-      </c>
-      <c r="M60" s="95">
-        <v>0</v>
-      </c>
-      <c r="N60" s="95">
-        <v>0</v>
-      </c>
-      <c r="O60" s="95">
-        <v>0</v>
-      </c>
-      <c r="P60" s="95">
+      <c r="L60" s="77">
+        <v>0</v>
+      </c>
+      <c r="M60" s="77">
+        <v>0</v>
+      </c>
+      <c r="N60" s="77">
+        <v>0</v>
+      </c>
+      <c r="O60" s="77">
+        <v>0</v>
+      </c>
+      <c r="P60" s="77">
         <v>1</v>
       </c>
-      <c r="Q60" s="95">
-        <v>0</v>
-      </c>
-      <c r="R60" s="95">
+      <c r="Q60" s="77">
+        <v>0</v>
+      </c>
+      <c r="R60" s="77">
         <v>0</v>
       </c>
     </row>
@@ -15225,8 +15509,8 @@
       </c>
     </row>
     <row r="75" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C75" s="88"/>
-      <c r="D75" s="90"/>
+      <c r="C75" s="70"/>
+      <c r="D75" s="72"/>
       <c r="R75">
         <f t="shared" ref="R75:R81" si="2">SUMPRODUCT($C$60:$R$60,C64:R64)</f>
         <v>1</v>
@@ -15239,8 +15523,8 @@
       </c>
     </row>
     <row r="76" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C76" s="88"/>
-      <c r="D76" s="90"/>
+      <c r="C76" s="70"/>
+      <c r="D76" s="72"/>
       <c r="R76">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -15253,8 +15537,8 @@
       </c>
     </row>
     <row r="77" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C77" s="88"/>
-      <c r="D77" s="90"/>
+      <c r="C77" s="70"/>
+      <c r="D77" s="72"/>
       <c r="R77">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -15267,8 +15551,8 @@
       </c>
     </row>
     <row r="78" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C78" s="88"/>
-      <c r="D78" s="90"/>
+      <c r="C78" s="70"/>
+      <c r="D78" s="72"/>
       <c r="R78">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -15281,8 +15565,8 @@
       </c>
     </row>
     <row r="79" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C79" s="88"/>
-      <c r="D79" s="90"/>
+      <c r="C79" s="70"/>
+      <c r="D79" s="72"/>
       <c r="R79">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -15295,8 +15579,8 @@
       </c>
     </row>
     <row r="80" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C80" s="88"/>
-      <c r="D80" s="90"/>
+      <c r="C80" s="70"/>
+      <c r="D80" s="72"/>
       <c r="R80">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -15309,10 +15593,10 @@
       </c>
     </row>
     <row r="81" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C81" s="88" t="s">
+      <c r="C81" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="D81" s="90">
+      <c r="D81" s="72">
         <v>1</v>
       </c>
       <c r="R81">
@@ -15327,86 +15611,86 @@
       </c>
     </row>
     <row r="82" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C82" s="88" t="s">
+      <c r="C82" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="D82" s="90">
+      <c r="D82" s="72">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C83" s="88" t="s">
+      <c r="C83" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="D83" s="90">
+      <c r="D83" s="72">
         <v>1</v>
       </c>
-      <c r="R83" s="96" t="s">
+      <c r="R83" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="S83" s="97" t="s">
+      <c r="S83" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="T83" s="96">
+      <c r="T83" s="78">
         <f>SUMPRODUCT(C60:R60,C72:R72)</f>
         <v>207</v>
       </c>
     </row>
     <row r="84" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C84" s="88" t="s">
+      <c r="C84" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="D84" s="90">
+      <c r="D84" s="72">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C85" s="88"/>
-      <c r="D85" s="90"/>
-      <c r="S85" s="88" t="s">
+      <c r="C85" s="70"/>
+      <c r="D85" s="72"/>
+      <c r="S85" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="T85" s="90">
+      <c r="T85" s="72">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C86" s="88"/>
-      <c r="D86" s="90"/>
-      <c r="S86" s="88" t="s">
+      <c r="C86" s="70"/>
+      <c r="D86" s="72"/>
+      <c r="S86" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="T86" s="90">
+      <c r="T86" s="72">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C87" s="88"/>
-      <c r="D87" s="90"/>
-      <c r="S87" s="88" t="s">
+      <c r="C87" s="70"/>
+      <c r="D87" s="72"/>
+      <c r="S87" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="T87" s="90">
+      <c r="T87" s="72">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C88" s="88"/>
-      <c r="D88" s="90"/>
-      <c r="S88" s="88" t="s">
+      <c r="C88" s="70"/>
+      <c r="D88" s="72"/>
+      <c r="S88" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="T88" s="90">
+      <c r="T88" s="72">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C89" s="88"/>
-      <c r="D89" s="90"/>
+      <c r="C89" s="70"/>
+      <c r="D89" s="72"/>
     </row>
     <row r="90" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C90" s="86"/>
-      <c r="D90" s="89"/>
+      <c r="C90" s="68"/>
+      <c r="D90" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -15431,11 +15715,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A12:G19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A12:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P39" sqref="P39"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15445,22 +15729,22 @@
   <sheetData>
     <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="82" t="s">
+      <c r="A13" s="96" t="s">
         <v>106</v>
       </c>
-      <c r="B13" s="77" t="s">
+      <c r="B13" s="91" t="s">
         <v>104</v>
       </c>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="80" t="s">
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="94" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="83"/>
+      <c r="A14" s="97"/>
       <c r="B14" s="52" t="s">
         <v>99</v>
       </c>
@@ -15476,7 +15760,7 @@
       <c r="F14" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="G14" s="81"/>
+      <c r="G14" s="95"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="40" t="s">
@@ -15524,7 +15808,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
         <v>96</v>
       </c>
@@ -15547,7 +15831,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="44" t="s">
         <v>97</v>
       </c>
@@ -15570,7 +15854,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="51" t="s">
         <v>98</v>
       </c>
@@ -15591,11 +15875,183 @@
       </c>
       <c r="G19" s="50"/>
     </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>259</v>
+      </c>
+      <c r="B21">
+        <f>SUM(B19:F19)</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>260</v>
+      </c>
+      <c r="B22">
+        <f>SUM(G15:G18)</f>
+        <v>730</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="96" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="91" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="94"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="97"/>
+      <c r="B25" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="G25" s="95"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="99">
+        <v>0</v>
+      </c>
+      <c r="C26" s="100">
+        <v>0</v>
+      </c>
+      <c r="D26" s="100">
+        <v>0</v>
+      </c>
+      <c r="E26" s="100">
+        <v>0</v>
+      </c>
+      <c r="F26" s="101">
+        <v>0</v>
+      </c>
+      <c r="G26" s="40"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="102">
+        <v>0</v>
+      </c>
+      <c r="C27" s="103">
+        <v>0</v>
+      </c>
+      <c r="D27" s="103">
+        <v>0</v>
+      </c>
+      <c r="E27" s="103">
+        <v>0</v>
+      </c>
+      <c r="F27" s="104">
+        <v>120</v>
+      </c>
+      <c r="G27" s="42"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="102">
+        <v>0</v>
+      </c>
+      <c r="C28" s="103">
+        <v>210</v>
+      </c>
+      <c r="D28" s="103">
+        <v>0</v>
+      </c>
+      <c r="E28" s="103">
+        <v>80</v>
+      </c>
+      <c r="F28" s="104">
+        <v>0</v>
+      </c>
+      <c r="G28" s="42"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="105">
+        <v>30</v>
+      </c>
+      <c r="C29" s="106">
+        <v>0</v>
+      </c>
+      <c r="D29" s="106">
+        <v>60</v>
+      </c>
+      <c r="E29" s="106">
+        <v>0</v>
+      </c>
+      <c r="F29" s="107">
+        <v>0</v>
+      </c>
+      <c r="G29" s="44"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="51"/>
+      <c r="B30" s="48">
+        <f>SUM(B26:B29)</f>
+        <v>30</v>
+      </c>
+      <c r="C30" s="48">
+        <f t="shared" ref="C30:F30" si="0">SUM(C26:C29)</f>
+        <v>210</v>
+      </c>
+      <c r="D30" s="48">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E30" s="48">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="F30" s="48">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="G30" s="50"/>
+      <c r="H30" s="98">
+        <f>SUM(B30:F30)</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f>SUMPRODUCT(B15:F18,B26:F29)</f>
+        <v>830</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="G24:G25"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
